--- a/Output_Results/accuracy/results_output_for_accuracy_Cafe.xlsx
+++ b/Output_Results/accuracy/results_output_for_accuracy_Cafe.xlsx
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
